--- a/Question_Set2/Role-specific skills/IT Business Analyst.xlsx
+++ b/Question_Set2/Role-specific skills/IT Business Analyst.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You’re a business analyst who completed user stories for a web-based software service. Alongside each story, you've included a wireframe.Which purpose should these wireframes serve?", 'ques_type': 2, 'options': ['To display story content layouts.', 'To detail design elements.', 'To follow human-computer interaction guidelines.', 'To present the user flow.'], 'score': 'To present the user flow.'}, {'title': 'You’re a business analyst tracking the pace at which user stories are being marked as done in each sprint.Which of the following factors should influence the number of user stories completed per sprint?', 'ques_type': 15, 'options': ['The speed and skills of the development team.', 'The complexity of the user stories.', 'The number of hours worked by the development team. ', 'The project completion date.', 'The capabilities of the project manager.'], 'score': ['The speed and skills of the development team.', 'The complexity of the user stories.']}, {'title': 'You’re a business analyst who occasionally needs to communicate with the quality assurance (QA) team during the product life cycle.When should you look to do this?', 'ques_type': 2, 'options': ['Continuously throughout the life cycle', 'During the user acceptance testing (UAT) phase', 'During the requirements analysis phase', 'During the requirements verification and validation phase'], 'score': 'Continuously throughout the life cycle'}, {'title': 'You are a business analyst and need to evaluate the performance of a recently implemented customer relationship management (CRM) system.Which of the following factors should you prioritize?', 'ques_type': 2, 'options': ['The system’s behavior during runtime.', 'The system’s performance in relation to the business goals.', 'The system’s performance in relation to the validated requirements.', 'User acceptance tests outcomes.'], 'score': 'The system’s performance in relation to the business goals.'}]</t>
+    <t>questions = [
+    {
+        "title": "You\u2019re a business analyst who completed user stories for a web-based software service. Alongside each story, you've included a wireframe.Which purpose should these wireframes serve?",
+        "ques_type": 2,
+        "options": [
+            "To display story content layouts.",
+            "To detail design elements.",
+            "To follow human-computer interaction guidelines.",
+            "To present the user flow."
+        ],
+        "score": "To present the user flow."
+    },
+    {
+        "title": "You\u2019re a business analyst tracking the pace at which user stories are being marked as done in each sprint.Which of the following factors should influence the number of user stories completed per sprint?",
+        "ques_type": 15,
+        "options": [
+            "The speed and skills of the development team.",
+            "The complexity of the user stories.",
+            "The number of hours worked by the development team. ",
+            "The project completion date.",
+            "The capabilities of the project manager."
+        ],
+        "score": [
+            "The speed and skills of the development team.",
+            "The complexity of the user stories."
+        ]
+    },
+    {
+        "title": "You\u2019re a business analyst who occasionally needs to communicate with the quality assurance (QA) team during the product life cycle.When should you look to do this?",
+        "ques_type": 2,
+        "options": [
+            "Continuously throughout the life cycle",
+            "During the user acceptance testing (UAT) phase",
+            "During the requirements analysis phase",
+            "During the requirements verification and validation phase"
+        ],
+        "score": "Continuously throughout the life cycle"
+    },
+    {
+        "title": "You are a business analyst and need to evaluate the performance of a recently implemented customer relationship management (CRM) system.Which of the following factors should you prioritize?",
+        "ques_type": 2,
+        "options": [
+            "The system\u2019s behavior during runtime.",
+            "The system\u2019s performance in relation to the business goals.",
+            "The system\u2019s performance in relation to the validated requirements.",
+            "User acceptance tests outcomes."
+        ],
+        "score": "The system\u2019s performance in relation to the business goals."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
